--- a/database/industries/siman/sekhouz/product/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE7F1A-E5BE-48D5-BCD9-9CB832C8064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -49,6 +47,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +354,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -365,7 +366,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -412,6 +413,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -447,6 +465,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,17 +633,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -618,7 +653,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,7 +665,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -642,7 +677,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -652,7 +687,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -664,7 +699,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -676,7 +711,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -686,7 +721,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -708,7 +743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -718,7 +753,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -727,22 +762,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1103724</v>
+        <v>667836</v>
       </c>
       <c r="F10" s="9">
-        <v>667836</v>
+        <v>557910</v>
       </c>
       <c r="G10" s="9">
-        <v>557910</v>
+        <v>590890</v>
       </c>
       <c r="H10" s="9">
-        <v>590890</v>
+        <v>573733</v>
       </c>
       <c r="I10" s="9">
-        <v>573733</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>658126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -751,22 +786,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>402716</v>
+        <v>533301</v>
       </c>
       <c r="F11" s="11">
-        <v>533301</v>
+        <v>445740</v>
       </c>
       <c r="G11" s="11">
-        <v>445740</v>
+        <v>437490</v>
       </c>
       <c r="H11" s="11">
-        <v>437490</v>
+        <v>390921</v>
       </c>
       <c r="I11" s="11">
-        <v>390921</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>564767</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -780,8 +815,8 @@
       <c r="F12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>14</v>
+      <c r="G12" s="9">
+        <v>0</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -790,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -804,8 +839,8 @@
       <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>14</v>
+      <c r="G13" s="11">
+        <v>0</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
@@ -814,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -836,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -847,11 +882,11 @@
       <c r="E15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>14</v>
@@ -860,7 +895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -874,8 +909,8 @@
       <c r="F16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>14</v>
+      <c r="G16" s="9">
+        <v>0</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -884,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -898,8 +933,8 @@
       <c r="F17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>14</v>
+      <c r="G17" s="11">
+        <v>0</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -908,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -922,8 +957,8 @@
       <c r="F18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>14</v>
+      <c r="G18" s="9">
+        <v>0</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -932,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -946,8 +981,8 @@
       <c r="F19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>14</v>
+      <c r="G19" s="11">
+        <v>0</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
@@ -956,29 +991,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>1506440</v>
+        <v>1201137</v>
       </c>
       <c r="F20" s="13">
-        <v>1201137</v>
+        <v>1003650</v>
       </c>
       <c r="G20" s="13">
-        <v>1003650</v>
+        <v>1028380</v>
       </c>
       <c r="H20" s="13">
-        <v>1028380</v>
+        <v>964654</v>
       </c>
       <c r="I20" s="13">
-        <v>964654</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1222893</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -988,7 +1023,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -998,7 +1033,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1008,7 +1043,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
@@ -1030,7 +1065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1040,7 +1075,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1049,13 +1084,13 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>84441</v>
-      </c>
-      <c r="F26" s="9">
         <v>243874</v>
       </c>
+      <c r="F26" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="G26" s="9">
-        <v>-540307</v>
+        <v>0</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
@@ -1064,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>12</v>
       </c>
@@ -1073,13 +1108,13 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>377514</v>
-      </c>
-      <c r="F27" s="11">
         <v>554437</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="11">
-        <v>-1301058</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11">
         <v>0</v>
@@ -1088,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
@@ -1112,7 +1147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -1158,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>27</v>
       </c>
@@ -1182,7 +1217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -1206,7 +1241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>13</v>
       </c>
@@ -1220,17 +1255,17 @@
       <c r="F33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>14</v>
+      <c r="G33" s="11">
+        <v>13509</v>
       </c>
       <c r="H33" s="11">
-        <v>13509</v>
+        <v>13876</v>
       </c>
       <c r="I33" s="11">
-        <v>13876</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33096</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
@@ -1254,7 +1289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
@@ -1268,17 +1303,17 @@
       <c r="F35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>14</v>
+      <c r="G35" s="11">
+        <v>158935</v>
       </c>
       <c r="H35" s="11">
-        <v>158935</v>
+        <v>159449</v>
       </c>
       <c r="I35" s="11">
-        <v>159449</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>200868</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>31</v>
       </c>
@@ -1326,7 +1361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>32</v>
       </c>
@@ -1350,7 +1385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>33</v>
       </c>
@@ -1374,7 +1409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>34</v>
       </c>
@@ -1398,7 +1433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>35</v>
       </c>
@@ -1422,7 +1457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>36</v>
       </c>
@@ -1446,7 +1481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>37</v>
       </c>
@@ -1470,7 +1505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -1494,7 +1529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>39</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>40</v>
       </c>
@@ -1542,7 +1577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>41</v>
       </c>
@@ -1566,7 +1601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>16</v>
       </c>
@@ -1575,8 +1610,8 @@
       <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
+      <c r="F48" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
@@ -1588,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>42</v>
       </c>
@@ -1612,7 +1647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>43</v>
       </c>
@@ -1636,7 +1671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>44</v>
       </c>
@@ -1660,7 +1695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>45</v>
       </c>
@@ -1684,7 +1719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>17</v>
       </c>
@@ -1695,12 +1730,12 @@
       <c r="E53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="11">
+      <c r="F53" s="11">
         <v>2440578</v>
       </c>
+      <c r="G53" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="H53" s="11" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>18</v>
       </c>
@@ -1722,17 +1757,17 @@
       <c r="F54" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>14</v>
+      <c r="G54" s="9">
+        <v>201275</v>
       </c>
       <c r="H54" s="9">
-        <v>201275</v>
+        <v>143080</v>
       </c>
       <c r="I54" s="9">
-        <v>143080</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>233086</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>19</v>
       </c>
@@ -1746,17 +1781,17 @@
       <c r="F55" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>14</v>
+      <c r="G55" s="11">
+        <v>54355</v>
       </c>
       <c r="H55" s="11">
-        <v>54355</v>
+        <v>54487</v>
       </c>
       <c r="I55" s="11">
-        <v>54487</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>127471</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>20</v>
       </c>
@@ -1770,8 +1805,8 @@
       <c r="F56" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>14</v>
+      <c r="G56" s="9">
+        <v>0</v>
       </c>
       <c r="H56" s="9">
         <v>0</v>
@@ -1780,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>21</v>
       </c>
@@ -1794,39 +1829,39 @@
       <c r="F57" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>14</v>
+      <c r="G57" s="11">
+        <v>149626</v>
       </c>
       <c r="H57" s="11">
-        <v>149626</v>
+        <v>183063</v>
       </c>
       <c r="I57" s="11">
-        <v>183063</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>150887</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>461955</v>
+        <v>798311</v>
       </c>
       <c r="F58" s="13">
-        <v>798311</v>
+        <v>2440578</v>
       </c>
       <c r="G58" s="13">
-        <v>599213</v>
+        <v>577700</v>
       </c>
       <c r="H58" s="13">
-        <v>577700</v>
+        <v>553955</v>
       </c>
       <c r="I58" s="13">
-        <v>553955</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>745408</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1836,7 +1871,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1846,7 +1881,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1856,7 +1891,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>46</v>
       </c>
@@ -1878,7 +1913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1888,7 +1923,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -1897,13 +1932,13 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>563662</v>
-      </c>
-      <c r="F64" s="9">
         <v>1600575</v>
       </c>
+      <c r="F64" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="G64" s="9">
-        <v>-3199819</v>
+        <v>0</v>
       </c>
       <c r="H64" s="9">
         <v>0</v>
@@ -1912,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>12</v>
       </c>
@@ -1921,13 +1956,13 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>1953907</v>
-      </c>
-      <c r="F65" s="11">
         <v>2930487</v>
       </c>
+      <c r="F65" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G65" s="11">
-        <v>-6230631</v>
+        <v>0</v>
       </c>
       <c r="H65" s="11">
         <v>0</v>
@@ -1936,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>24</v>
       </c>
@@ -1960,7 +1995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>25</v>
       </c>
@@ -1984,7 +2019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>26</v>
       </c>
@@ -2008,7 +2043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>28</v>
       </c>
@@ -2056,7 +2091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>13</v>
       </c>
@@ -2070,17 +2105,17 @@
       <c r="F71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="11" t="s">
-        <v>14</v>
+      <c r="G71" s="11">
+        <v>79095</v>
       </c>
       <c r="H71" s="11">
-        <v>79095</v>
+        <v>95529</v>
       </c>
       <c r="I71" s="11">
-        <v>95529</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215764</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>29</v>
       </c>
@@ -2104,7 +2139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>15</v>
       </c>
@@ -2118,17 +2153,17 @@
       <c r="F73" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="11" t="s">
-        <v>14</v>
+      <c r="G73" s="11">
+        <v>1019242</v>
       </c>
       <c r="H73" s="11">
-        <v>1019242</v>
+        <v>1138782</v>
       </c>
       <c r="I73" s="11">
-        <v>1138782</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1491323</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>30</v>
       </c>
@@ -2152,7 +2187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>31</v>
       </c>
@@ -2176,7 +2211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>32</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>33</v>
       </c>
@@ -2224,7 +2259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>34</v>
       </c>
@@ -2248,7 +2283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>35</v>
       </c>
@@ -2272,7 +2307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>36</v>
       </c>
@@ -2296,7 +2331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>37</v>
       </c>
@@ -2320,7 +2355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>38</v>
       </c>
@@ -2344,7 +2379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>39</v>
       </c>
@@ -2368,7 +2403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>40</v>
       </c>
@@ -2392,7 +2427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>41</v>
       </c>
@@ -2416,7 +2451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>16</v>
       </c>
@@ -2427,8 +2462,8 @@
       <c r="E86" s="9">
         <v>0</v>
       </c>
-      <c r="F86" s="9">
-        <v>0</v>
+      <c r="F86" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G86" s="9">
         <v>0</v>
@@ -2440,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>42</v>
       </c>
@@ -2464,7 +2499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>43</v>
       </c>
@@ -2488,7 +2523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +2547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -2536,7 +2571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>17</v>
       </c>
@@ -2547,12 +2582,12 @@
       <c r="E91" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="11">
+      <c r="F91" s="11">
         <v>12824117</v>
       </c>
+      <c r="G91" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="H91" s="11" t="s">
         <v>14</v>
       </c>
@@ -2560,7 +2595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>18</v>
       </c>
@@ -2574,17 +2609,17 @@
       <c r="F92" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="9" t="s">
-        <v>14</v>
+      <c r="G92" s="9">
+        <v>1127444</v>
       </c>
       <c r="H92" s="9">
-        <v>1127444</v>
+        <v>1062275</v>
       </c>
       <c r="I92" s="9">
-        <v>1062275</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1929577</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>19</v>
       </c>
@@ -2598,17 +2633,17 @@
       <c r="F93" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="11" t="s">
-        <v>14</v>
+      <c r="G93" s="11">
+        <v>311562</v>
       </c>
       <c r="H93" s="11">
-        <v>311562</v>
+        <v>372368</v>
       </c>
       <c r="I93" s="11">
-        <v>372368</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1070483</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>20</v>
       </c>
@@ -2622,8 +2657,8 @@
       <c r="F94" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>14</v>
+      <c r="G94" s="9">
+        <v>0</v>
       </c>
       <c r="H94" s="9">
         <v>0</v>
@@ -2632,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>21</v>
       </c>
@@ -2646,39 +2681,39 @@
       <c r="F95" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G95" s="11" t="s">
-        <v>14</v>
+      <c r="G95" s="11">
+        <v>1007310</v>
       </c>
       <c r="H95" s="11">
-        <v>1007310</v>
+        <v>1570516</v>
       </c>
       <c r="I95" s="11">
-        <v>1570516</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1357937</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
-        <v>2517569</v>
+        <v>4531062</v>
       </c>
       <c r="F96" s="13">
-        <v>4531062</v>
+        <v>12824117</v>
       </c>
       <c r="G96" s="13">
-        <v>3393667</v>
+        <v>3544653</v>
       </c>
       <c r="H96" s="13">
-        <v>3544653</v>
+        <v>4239470</v>
       </c>
       <c r="I96" s="13">
-        <v>4239470</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6065084</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2688,7 +2723,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2698,7 +2733,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2708,7 +2743,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
         <v>48</v>
       </c>
@@ -2730,7 +2765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2740,7 +2775,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>10</v>
       </c>
@@ -2749,13 +2784,13 @@
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
-        <v>6675217</v>
+        <v>5922224</v>
       </c>
       <c r="F102" s="9">
         <v>5922224</v>
       </c>
-      <c r="G102" s="9">
-        <v>5922224</v>
+      <c r="G102" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>14</v>
@@ -2764,7 +2799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>12</v>
       </c>
@@ -2773,13 +2808,13 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>5175721</v>
+        <v>4788896</v>
       </c>
       <c r="F103" s="11">
         <v>4788896</v>
       </c>
-      <c r="G103" s="11">
-        <v>4788896</v>
+      <c r="G103" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>14</v>
@@ -2788,7 +2823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>24</v>
       </c>
@@ -2812,7 +2847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>25</v>
       </c>
@@ -2836,7 +2871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>26</v>
       </c>
@@ -2860,7 +2895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
@@ -2884,7 +2919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>28</v>
       </c>
@@ -2908,7 +2943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>13</v>
       </c>
@@ -2922,17 +2957,17 @@
       <c r="F109" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="11" t="s">
-        <v>14</v>
+      <c r="G109" s="11">
+        <v>5854986</v>
       </c>
       <c r="H109" s="11">
-        <v>5854986</v>
+        <v>6884477</v>
       </c>
       <c r="I109" s="11">
-        <v>6884477</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6519338</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>29</v>
       </c>
@@ -2956,7 +2991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>15</v>
       </c>
@@ -2970,17 +3005,17 @@
       <c r="F111" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="11" t="s">
-        <v>14</v>
+      <c r="G111" s="11">
+        <v>6412949</v>
       </c>
       <c r="H111" s="11">
-        <v>6412949</v>
+        <v>7141983</v>
       </c>
       <c r="I111" s="11">
-        <v>7141983</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7424393</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>30</v>
       </c>
@@ -3004,7 +3039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>31</v>
       </c>
@@ -3028,7 +3063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>32</v>
       </c>
@@ -3052,7 +3087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>33</v>
       </c>
@@ -3076,7 +3111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>34</v>
       </c>
@@ -3100,7 +3135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>35</v>
       </c>
@@ -3124,7 +3159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>36</v>
       </c>
@@ -3148,7 +3183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>37</v>
       </c>
@@ -3172,7 +3207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>39</v>
       </c>
@@ -3196,7 +3231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>40</v>
       </c>
@@ -3220,7 +3255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>41</v>
       </c>
@@ -3244,7 +3279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>16</v>
       </c>
@@ -3268,7 +3303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>42</v>
       </c>
@@ -3292,7 +3327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>43</v>
       </c>
@@ -3316,7 +3351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>44</v>
       </c>
@@ -3340,7 +3375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>45</v>
       </c>
@@ -3364,7 +3399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>17</v>
       </c>
@@ -3375,12 +3410,12 @@
       <c r="E128" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="9">
+      <c r="F128" s="9">
         <v>5254541</v>
       </c>
+      <c r="G128" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H128" s="9" t="s">
         <v>14</v>
       </c>
@@ -3388,7 +3423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>18</v>
       </c>
@@ -3402,17 +3437,17 @@
       <c r="F129" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G129" s="11" t="s">
-        <v>14</v>
+      <c r="G129" s="11">
+        <v>5601510</v>
       </c>
       <c r="H129" s="11">
-        <v>5601510</v>
+        <v>7424343</v>
       </c>
       <c r="I129" s="11">
-        <v>7424343</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8278391</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>19</v>
       </c>
@@ -3426,17 +3461,17 @@
       <c r="F130" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G130" s="9" t="s">
-        <v>14</v>
+      <c r="G130" s="9">
+        <v>5731984</v>
       </c>
       <c r="H130" s="9">
-        <v>5731984</v>
+        <v>6834071</v>
       </c>
       <c r="I130" s="9">
-        <v>6834071</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8397855</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>20</v>
       </c>
@@ -3460,7 +3495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>21</v>
       </c>
@@ -3474,17 +3509,17 @@
       <c r="F132" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G132" s="9" t="s">
-        <v>14</v>
+      <c r="G132" s="9">
+        <v>6732186</v>
       </c>
       <c r="H132" s="9">
-        <v>6732186</v>
+        <v>8579101</v>
       </c>
       <c r="I132" s="9">
-        <v>8579101</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8999695</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3494,7 +3529,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3504,7 +3539,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3514,7 +3549,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
         <v>51</v>
       </c>
@@ -3536,7 +3571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3546,7 +3581,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>10</v>
       </c>
@@ -3555,13 +3590,13 @@
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9">
-        <v>-242923</v>
+        <v>-691278</v>
       </c>
       <c r="F138" s="9">
-        <v>-691278</v>
+        <v>1397107</v>
       </c>
       <c r="G138" s="9">
-        <v>1397107</v>
+        <v>0</v>
       </c>
       <c r="H138" s="9">
         <v>0</v>
@@ -3570,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>12</v>
       </c>
@@ -3579,22 +3614,22 @@
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
-        <v>-1038437</v>
+        <v>-1080218</v>
       </c>
       <c r="F139" s="11">
-        <v>-1080218</v>
+        <v>2720422</v>
       </c>
       <c r="G139" s="11">
-        <v>2720422</v>
+        <v>0</v>
       </c>
       <c r="H139" s="11">
-        <v>0</v>
+        <v>-2244349</v>
       </c>
       <c r="I139" s="11">
-        <v>-2244349</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4680856</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>26</v>
       </c>
@@ -3618,7 +3653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>13</v>
       </c>
@@ -3632,17 +3667,17 @@
       <c r="F141" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G141" s="11" t="s">
-        <v>14</v>
+      <c r="G141" s="11">
+        <v>-42333</v>
       </c>
       <c r="H141" s="11">
-        <v>-42333</v>
+        <v>42333</v>
       </c>
       <c r="I141" s="11">
-        <v>42333</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>15</v>
       </c>
@@ -3656,17 +3691,17 @@
       <c r="F142" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G142" s="9" t="s">
-        <v>14</v>
+      <c r="G142" s="9">
+        <v>-514156</v>
       </c>
       <c r="H142" s="9">
-        <v>-514156</v>
+        <v>514156</v>
       </c>
       <c r="I142" s="9">
-        <v>514156</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>16</v>
       </c>
@@ -3690,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>17</v>
       </c>
@@ -3701,12 +3736,12 @@
       <c r="E144" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F144" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" s="9">
+      <c r="F144" s="9">
         <v>-6208752</v>
       </c>
+      <c r="G144" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H144" s="9" t="s">
         <v>14</v>
       </c>
@@ -3714,7 +3749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>18</v>
       </c>
@@ -3728,17 +3763,17 @@
       <c r="F145" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G145" s="11" t="s">
-        <v>14</v>
+      <c r="G145" s="11">
+        <v>-735340</v>
       </c>
       <c r="H145" s="11">
-        <v>-735340</v>
+        <v>-919258</v>
       </c>
       <c r="I145" s="11">
-        <v>-919258</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1654598</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>19</v>
       </c>
@@ -3752,17 +3787,17 @@
       <c r="F146" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G146" s="9" t="s">
-        <v>14</v>
+      <c r="G146" s="9">
+        <v>-202101</v>
       </c>
       <c r="H146" s="9">
-        <v>-202101</v>
+        <v>202101</v>
       </c>
       <c r="I146" s="9">
-        <v>202101</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>20</v>
       </c>
@@ -3776,8 +3811,8 @@
       <c r="F147" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G147" s="11" t="s">
-        <v>14</v>
+      <c r="G147" s="11">
+        <v>0</v>
       </c>
       <c r="H147" s="11">
         <v>0</v>
@@ -3786,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>21</v>
       </c>
@@ -3800,39 +3835,39 @@
       <c r="F148" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G148" s="9" t="s">
-        <v>14</v>
+      <c r="G148" s="9">
+        <v>-334173</v>
       </c>
       <c r="H148" s="9">
-        <v>-334173</v>
+        <v>334173</v>
       </c>
       <c r="I148" s="9">
-        <v>334173</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
-        <v>-1281360</v>
+        <v>-1771496</v>
       </c>
       <c r="F149" s="15">
-        <v>-1771496</v>
+        <v>-2091223</v>
       </c>
       <c r="G149" s="15">
-        <v>-2091223</v>
+        <v>-1828103</v>
       </c>
       <c r="H149" s="15">
-        <v>-1828103</v>
+        <v>-2070844</v>
       </c>
       <c r="I149" s="15">
-        <v>-2070844</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3026258</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3842,7 +3877,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3852,7 +3887,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3862,7 +3897,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>52</v>
       </c>
@@ -3884,7 +3919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3894,7 +3929,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>10</v>
       </c>
@@ -3903,13 +3938,13 @@
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
-        <v>320739</v>
+        <v>909297</v>
       </c>
       <c r="F155" s="9">
-        <v>909297</v>
+        <v>-1802712</v>
       </c>
       <c r="G155" s="9">
-        <v>-1802712</v>
+        <v>0</v>
       </c>
       <c r="H155" s="9">
         <v>0</v>
@@ -3918,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>12</v>
       </c>
@@ -3927,22 +3962,22 @@
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
-        <v>915470</v>
+        <v>1850269</v>
       </c>
       <c r="F156" s="11">
-        <v>1850269</v>
+        <v>-3510209</v>
       </c>
       <c r="G156" s="11">
-        <v>-3510209</v>
+        <v>0</v>
       </c>
       <c r="H156" s="11">
-        <v>0</v>
+        <v>-2244349</v>
       </c>
       <c r="I156" s="11">
-        <v>-2244349</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4680856</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>26</v>
       </c>
@@ -3966,7 +4001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>13</v>
       </c>
@@ -3980,17 +4015,17 @@
       <c r="F158" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G158" s="11" t="s">
-        <v>14</v>
+      <c r="G158" s="11">
+        <v>36762</v>
       </c>
       <c r="H158" s="11">
-        <v>36762</v>
+        <v>137862</v>
       </c>
       <c r="I158" s="11">
-        <v>137862</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215764</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>15</v>
       </c>
@@ -4004,17 +4039,17 @@
       <c r="F159" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G159" s="9" t="s">
-        <v>14</v>
+      <c r="G159" s="9">
+        <v>505086</v>
       </c>
       <c r="H159" s="9">
-        <v>505086</v>
+        <v>1652938</v>
       </c>
       <c r="I159" s="9">
-        <v>1652938</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1491323</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>16</v>
       </c>
@@ -4038,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>17</v>
       </c>
@@ -4049,12 +4084,12 @@
       <c r="E161" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F161" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" s="9">
+      <c r="F161" s="9">
         <v>6615365</v>
       </c>
+      <c r="G161" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H161" s="9" t="s">
         <v>14</v>
       </c>
@@ -4062,7 +4097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>18</v>
       </c>
@@ -4076,17 +4111,17 @@
       <c r="F162" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G162" s="11" t="s">
-        <v>14</v>
+      <c r="G162" s="11">
+        <v>392104</v>
       </c>
       <c r="H162" s="11">
-        <v>392104</v>
+        <v>143017</v>
       </c>
       <c r="I162" s="11">
-        <v>143017</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3584175</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>19</v>
       </c>
@@ -4100,17 +4135,17 @@
       <c r="F163" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G163" s="9" t="s">
-        <v>14</v>
+      <c r="G163" s="9">
+        <v>109461</v>
       </c>
       <c r="H163" s="9">
-        <v>109461</v>
+        <v>574469</v>
       </c>
       <c r="I163" s="9">
-        <v>574469</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1070483</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>20</v>
       </c>
@@ -4124,8 +4159,8 @@
       <c r="F164" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G164" s="11" t="s">
-        <v>14</v>
+      <c r="G164" s="11">
+        <v>0</v>
       </c>
       <c r="H164" s="11">
         <v>0</v>
@@ -4134,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>21</v>
       </c>
@@ -4148,36 +4183,36 @@
       <c r="F165" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G165" s="9" t="s">
-        <v>14</v>
+      <c r="G165" s="9">
+        <v>673137</v>
       </c>
       <c r="H165" s="9">
-        <v>673137</v>
+        <v>1904689</v>
       </c>
       <c r="I165" s="9">
-        <v>1904689</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1357937</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15">
-        <v>1236209</v>
+        <v>2759566</v>
       </c>
       <c r="F166" s="15">
-        <v>2759566</v>
+        <v>1302444</v>
       </c>
       <c r="G166" s="15">
-        <v>1302444</v>
+        <v>1716550</v>
       </c>
       <c r="H166" s="15">
-        <v>1716550</v>
+        <v>2168626</v>
       </c>
       <c r="I166" s="15">
-        <v>2168626</v>
+        <v>3038826</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/sekhouz/product/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE7F1A-E5BE-48D5-BCD9-9CB832C8064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA267490-EDAC-48CC-8412-AD18C66B8146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -58,13 +73,13 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>سیمان</t>
   </si>
   <si>
     <t>سیمان تیپ 2-پاکتی</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سیمان تیپ 5-پاکتی</t>
@@ -634,16 +649,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I166"/>
+  <dimension ref="B1:N166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -652,8 +667,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,8 +684,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,8 +701,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -686,8 +716,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -698,8 +733,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -710,8 +750,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -720,8 +765,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -742,8 +792,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -752,268 +817,438 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1103724</v>
+      </c>
+      <c r="J10" s="9">
         <v>667836</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>557910</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>590890</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>573733</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>658126</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>441378</v>
+      </c>
+      <c r="F11" s="11">
+        <v>464557</v>
+      </c>
+      <c r="G11" s="11">
+        <v>479019</v>
+      </c>
+      <c r="H11" s="11">
+        <v>362123</v>
+      </c>
+      <c r="I11" s="11">
+        <v>402716</v>
+      </c>
+      <c r="J11" s="11">
         <v>533301</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>445740</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>437490</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>390921</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>564767</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>441378</v>
+      </c>
+      <c r="F20" s="13">
+        <v>464557</v>
+      </c>
+      <c r="G20" s="13">
+        <v>479019</v>
+      </c>
+      <c r="H20" s="13">
+        <v>362123</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1506440</v>
+      </c>
+      <c r="J20" s="13">
         <v>1201137</v>
       </c>
-      <c r="F20" s="13">
+      <c r="K20" s="13">
         <v>1003650</v>
       </c>
-      <c r="G20" s="13">
+      <c r="L20" s="13">
         <v>1028380</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>964654</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>1222893</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1022,8 +1257,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1032,8 +1272,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1042,10 +1287,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1064,8 +1314,23 @@
       <c r="I24" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1074,544 +1339,879 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
+        <v>245298</v>
+      </c>
+      <c r="F26" s="9">
+        <v>168161</v>
+      </c>
+      <c r="G26" s="9">
+        <v>192449</v>
+      </c>
+      <c r="H26" s="9">
+        <v>211992</v>
+      </c>
+      <c r="I26" s="9">
+        <v>84441</v>
+      </c>
+      <c r="J26" s="9">
         <v>243874</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>462510</v>
+      </c>
+      <c r="F27" s="11">
+        <v>456291</v>
+      </c>
+      <c r="G27" s="11">
+        <v>473401</v>
+      </c>
+      <c r="H27" s="11">
+        <v>369107</v>
+      </c>
+      <c r="I27" s="11">
+        <v>377514</v>
+      </c>
+      <c r="J27" s="11">
         <v>554437</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>14</v>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="11">
+        <v>17</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="11">
         <v>13509</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>13876</v>
       </c>
-      <c r="I33" s="11">
+      <c r="N33" s="11">
         <v>33096</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="11">
+        <v>17</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="11">
         <v>158935</v>
       </c>
-      <c r="H35" s="11">
+      <c r="M35" s="11">
         <v>159449</v>
       </c>
-      <c r="I35" s="11">
+      <c r="N35" s="11">
         <v>200868</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>14</v>
+      <c r="F48" s="9">
+        <v>0</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
@@ -1622,246 +2222,411 @@
       <c r="I48" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="9">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="11">
+        <v>17</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="11">
         <v>2440578</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="9">
+        <v>17</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="9">
         <v>201275</v>
       </c>
-      <c r="H54" s="9">
+      <c r="M54" s="9">
         <v>143080</v>
       </c>
-      <c r="I54" s="9">
+      <c r="N54" s="9">
         <v>233086</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="11">
+        <v>17</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="11">
         <v>54355</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>54487</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>127471</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="11">
+        <v>17</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="11">
         <v>149626</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>183063</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>150887</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>707808</v>
+      </c>
+      <c r="F58" s="13">
+        <v>624452</v>
+      </c>
+      <c r="G58" s="13">
+        <v>665850</v>
+      </c>
+      <c r="H58" s="13">
+        <v>581099</v>
+      </c>
+      <c r="I58" s="13">
+        <v>461955</v>
+      </c>
+      <c r="J58" s="13">
         <v>798311</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>2440578</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>577700</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>553955</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>745408</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1870,8 +2635,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1880,8 +2650,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1890,10 +2665,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1912,8 +2692,23 @@
       <c r="I62" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1922,548 +2717,883 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>881840</v>
+      </c>
+      <c r="F64" s="9">
+        <v>709780</v>
+      </c>
+      <c r="G64" s="9">
+        <v>850481</v>
+      </c>
+      <c r="H64" s="9">
+        <v>1035582</v>
+      </c>
+      <c r="I64" s="9">
+        <v>563662</v>
+      </c>
+      <c r="J64" s="9">
         <v>1600575</v>
       </c>
-      <c r="F64" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9">
-        <v>0</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="9">
+        <v>0</v>
+      </c>
+      <c r="M64" s="9">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>1586756</v>
+      </c>
+      <c r="F65" s="11">
+        <v>1444150</v>
+      </c>
+      <c r="G65" s="11">
+        <v>1591437</v>
+      </c>
+      <c r="H65" s="11">
+        <v>1346237</v>
+      </c>
+      <c r="I65" s="11">
+        <v>1953907</v>
+      </c>
+      <c r="J65" s="11">
         <v>2930487</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="11">
-        <v>0</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="11">
+        <v>0</v>
+      </c>
+      <c r="M65" s="11">
+        <v>0</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>14</v>
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="11">
+        <v>17</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="11">
         <v>79095</v>
       </c>
-      <c r="H71" s="11">
+      <c r="M71" s="11">
         <v>95529</v>
       </c>
-      <c r="I71" s="11">
+      <c r="N71" s="11">
         <v>215764</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="11">
+        <v>17</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="11">
         <v>1019242</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>1138782</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>1491323</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
         <v>0</v>
       </c>
-      <c r="F86" s="9" t="s">
-        <v>14</v>
+      <c r="F86" s="9">
+        <v>0</v>
       </c>
       <c r="G86" s="9">
         <v>0</v>
@@ -2474,246 +3604,411 @@
       <c r="I86" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="9">
+        <v>0</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="9">
+        <v>0</v>
+      </c>
+      <c r="M86" s="9">
+        <v>0</v>
+      </c>
+      <c r="N86" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="11">
+        <v>17</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="11">
         <v>12824117</v>
       </c>
-      <c r="G91" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="9">
+        <v>17</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="9">
         <v>1127444</v>
       </c>
-      <c r="H92" s="9">
+      <c r="M92" s="9">
         <v>1062275</v>
       </c>
-      <c r="I92" s="9">
+      <c r="N92" s="9">
         <v>1929577</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="11">
+        <v>17</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="11">
         <v>311562</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>372368</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>1070483</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="9">
-        <v>0</v>
-      </c>
-      <c r="H94" s="9">
-        <v>0</v>
-      </c>
-      <c r="I94" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" s="9">
+        <v>0</v>
+      </c>
+      <c r="M94" s="9">
+        <v>0</v>
+      </c>
+      <c r="N94" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="11">
+        <v>17</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" s="11">
         <v>1007310</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>1570516</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>1357937</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
+        <v>2468596</v>
+      </c>
+      <c r="F96" s="13">
+        <v>2153930</v>
+      </c>
+      <c r="G96" s="13">
+        <v>2441918</v>
+      </c>
+      <c r="H96" s="13">
+        <v>2381819</v>
+      </c>
+      <c r="I96" s="13">
+        <v>2517569</v>
+      </c>
+      <c r="J96" s="13">
         <v>4531062</v>
       </c>
-      <c r="F96" s="13">
+      <c r="K96" s="13">
         <v>12824117</v>
       </c>
-      <c r="G96" s="13">
+      <c r="L96" s="13">
         <v>3544653</v>
       </c>
-      <c r="H96" s="13">
+      <c r="M96" s="13">
         <v>4239470</v>
       </c>
-      <c r="I96" s="13">
+      <c r="N96" s="13">
         <v>6065084</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2722,8 +4017,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2732,8 +4032,13 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2742,10 +4047,15 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -2764,8 +4074,23 @@
       <c r="I100" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2774,752 +4099,1222 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
+        <v>3073074</v>
+      </c>
+      <c r="F102" s="9">
+        <v>3403646</v>
+      </c>
+      <c r="G102" s="9">
+        <v>3655417</v>
+      </c>
+      <c r="H102" s="9">
+        <v>4885005</v>
+      </c>
+      <c r="I102" s="9">
+        <v>6675217</v>
+      </c>
+      <c r="J102" s="9">
         <v>5922224</v>
       </c>
-      <c r="F102" s="9">
+      <c r="K102" s="9">
         <v>5922224</v>
       </c>
-      <c r="G102" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N102" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
+        <v>2885636</v>
+      </c>
+      <c r="F103" s="11">
+        <v>2989915</v>
+      </c>
+      <c r="G103" s="11">
+        <v>3093712</v>
+      </c>
+      <c r="H103" s="11">
+        <v>3647281</v>
+      </c>
+      <c r="I103" s="11">
+        <v>5175721</v>
+      </c>
+      <c r="J103" s="11">
         <v>4788896</v>
       </c>
-      <c r="F103" s="11">
+      <c r="K103" s="11">
         <v>4788896</v>
       </c>
-      <c r="G103" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N108" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="11">
+        <v>17</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L109" s="11">
         <v>5854986</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>6884477</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>6519338</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="11">
+        <v>17</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L111" s="11">
         <v>6412949</v>
       </c>
-      <c r="H111" s="11">
+      <c r="M111" s="11">
         <v>7141983</v>
       </c>
-      <c r="I111" s="11">
+      <c r="N111" s="11">
         <v>7424393</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N112" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N114" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N118" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N120" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N124" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="9">
+        <v>17</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K128" s="9">
         <v>5254541</v>
       </c>
-      <c r="G128" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I128" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N128" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="11">
+        <v>17</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L129" s="11">
         <v>5601510</v>
       </c>
-      <c r="H129" s="11">
+      <c r="M129" s="11">
         <v>7424343</v>
       </c>
-      <c r="I129" s="11">
+      <c r="N129" s="11">
         <v>8278391</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" s="9">
+        <v>17</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L130" s="9">
         <v>5731984</v>
       </c>
-      <c r="H130" s="9">
+      <c r="M130" s="9">
         <v>6834071</v>
       </c>
-      <c r="I130" s="9">
+      <c r="N130" s="9">
         <v>8397855</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K131" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L131" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M131" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N131" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" s="9">
+        <v>17</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L132" s="9">
         <v>6732186</v>
       </c>
-      <c r="H132" s="9">
+      <c r="M132" s="9">
         <v>8579101</v>
       </c>
-      <c r="I132" s="9">
+      <c r="N132" s="9">
         <v>8999695</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3528,8 +5323,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3538,8 +5338,13 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3548,10 +5353,15 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -3570,8 +5380,23 @@
       <c r="I136" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3580,133 +5405,213 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9">
+        <v>-347437</v>
+      </c>
+      <c r="F138" s="9">
+        <v>-273638</v>
+      </c>
+      <c r="G138" s="9">
+        <v>-155539</v>
+      </c>
+      <c r="H138" s="9">
+        <v>-462906</v>
+      </c>
+      <c r="I138" s="9">
+        <v>-242923</v>
+      </c>
+      <c r="J138" s="9">
         <v>-691278</v>
       </c>
-      <c r="F138" s="9">
+      <c r="K138" s="9">
         <v>1397107</v>
       </c>
-      <c r="G138" s="9">
-        <v>0</v>
-      </c>
-      <c r="H138" s="9">
-        <v>0</v>
-      </c>
-      <c r="I138" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L138" s="9">
+        <v>0</v>
+      </c>
+      <c r="M138" s="9">
+        <v>0</v>
+      </c>
+      <c r="N138" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
+        <v>-596918</v>
+      </c>
+      <c r="F139" s="11">
+        <v>-630180</v>
+      </c>
+      <c r="G139" s="11">
+        <v>-1133236</v>
+      </c>
+      <c r="H139" s="11">
+        <v>-601767</v>
+      </c>
+      <c r="I139" s="11">
+        <v>-1038437</v>
+      </c>
+      <c r="J139" s="11">
         <v>-1080218</v>
       </c>
-      <c r="F139" s="11">
+      <c r="K139" s="11">
         <v>2720422</v>
       </c>
-      <c r="G139" s="11">
-        <v>0</v>
-      </c>
-      <c r="H139" s="11">
+      <c r="L139" s="11">
+        <v>0</v>
+      </c>
+      <c r="M139" s="11">
         <v>-2244349</v>
       </c>
-      <c r="I139" s="11">
+      <c r="N139" s="11">
         <v>-4680856</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D140" s="9"/>
-      <c r="E140" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>14</v>
+      <c r="E140" s="9">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9">
+        <v>0</v>
+      </c>
+      <c r="G140" s="9">
+        <v>0</v>
+      </c>
+      <c r="H140" s="9">
+        <v>0</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N140" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="11">
+        <v>17</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L141" s="11">
         <v>-42333</v>
       </c>
-      <c r="H141" s="11">
+      <c r="M141" s="11">
         <v>42333</v>
       </c>
-      <c r="I141" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N141" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" s="9">
+        <v>17</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L142" s="9">
         <v>-514156</v>
       </c>
-      <c r="H142" s="9">
+      <c r="M142" s="9">
         <v>514156</v>
       </c>
-      <c r="I142" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N142" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11">
@@ -3724,150 +5629,255 @@
       <c r="I143" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="11">
+        <v>0</v>
+      </c>
+      <c r="K143" s="11">
+        <v>0</v>
+      </c>
+      <c r="L143" s="11">
+        <v>0</v>
+      </c>
+      <c r="M143" s="11">
+        <v>0</v>
+      </c>
+      <c r="N143" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" s="9">
+        <v>17</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" s="9">
         <v>-6208752</v>
       </c>
-      <c r="G144" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I144" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N144" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" s="11">
+        <v>17</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L145" s="11">
         <v>-735340</v>
       </c>
-      <c r="H145" s="11">
+      <c r="M145" s="11">
         <v>-919258</v>
       </c>
-      <c r="I145" s="11">
+      <c r="N145" s="11">
         <v>1654598</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="9">
+        <v>17</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L146" s="9">
         <v>-202101</v>
       </c>
-      <c r="H146" s="9">
+      <c r="M146" s="9">
         <v>202101</v>
       </c>
-      <c r="I146" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N146" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="11">
-        <v>0</v>
-      </c>
-      <c r="H147" s="11">
-        <v>0</v>
-      </c>
-      <c r="I147" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L147" s="11">
+        <v>0</v>
+      </c>
+      <c r="M147" s="11">
+        <v>0</v>
+      </c>
+      <c r="N147" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="9">
+        <v>17</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L148" s="9">
         <v>-334173</v>
       </c>
-      <c r="H148" s="9">
+      <c r="M148" s="9">
         <v>334173</v>
       </c>
-      <c r="I148" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N148" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
+        <v>-944355</v>
+      </c>
+      <c r="F149" s="15">
+        <v>-903818</v>
+      </c>
+      <c r="G149" s="15">
+        <v>-1288775</v>
+      </c>
+      <c r="H149" s="15">
+        <v>-1064673</v>
+      </c>
+      <c r="I149" s="15">
+        <v>-1281360</v>
+      </c>
+      <c r="J149" s="15">
         <v>-1771496</v>
       </c>
-      <c r="F149" s="15">
+      <c r="K149" s="15">
         <v>-2091223</v>
       </c>
-      <c r="G149" s="15">
+      <c r="L149" s="15">
         <v>-1828103</v>
       </c>
-      <c r="H149" s="15">
+      <c r="M149" s="15">
         <v>-2070844</v>
       </c>
-      <c r="I149" s="15">
+      <c r="N149" s="15">
         <v>-3026258</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3876,8 +5886,13 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3886,8 +5901,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3896,10 +5916,15 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3918,8 +5943,23 @@
       <c r="I153" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3928,133 +5968,213 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
+        <v>534403</v>
+      </c>
+      <c r="F155" s="9">
+        <v>436142</v>
+      </c>
+      <c r="G155" s="9">
+        <v>694942</v>
+      </c>
+      <c r="H155" s="9">
+        <v>572676</v>
+      </c>
+      <c r="I155" s="9">
+        <v>320739</v>
+      </c>
+      <c r="J155" s="9">
         <v>909297</v>
       </c>
-      <c r="F155" s="9">
+      <c r="K155" s="9">
         <v>-1802712</v>
       </c>
-      <c r="G155" s="9">
-        <v>0</v>
-      </c>
-      <c r="H155" s="9">
-        <v>0</v>
-      </c>
-      <c r="I155" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L155" s="9">
+        <v>0</v>
+      </c>
+      <c r="M155" s="9">
+        <v>0</v>
+      </c>
+      <c r="N155" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
+        <v>989838</v>
+      </c>
+      <c r="F156" s="11">
+        <v>813970</v>
+      </c>
+      <c r="G156" s="11">
+        <v>458201</v>
+      </c>
+      <c r="H156" s="11">
+        <v>744470</v>
+      </c>
+      <c r="I156" s="11">
+        <v>915470</v>
+      </c>
+      <c r="J156" s="11">
         <v>1850269</v>
       </c>
-      <c r="F156" s="11">
+      <c r="K156" s="11">
         <v>-3510209</v>
       </c>
-      <c r="G156" s="11">
-        <v>0</v>
-      </c>
-      <c r="H156" s="11">
+      <c r="L156" s="11">
+        <v>0</v>
+      </c>
+      <c r="M156" s="11">
         <v>-2244349</v>
       </c>
-      <c r="I156" s="11">
+      <c r="N156" s="11">
         <v>-4680856</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>14</v>
+      <c r="E157" s="9">
+        <v>0</v>
+      </c>
+      <c r="F157" s="9">
+        <v>0</v>
+      </c>
+      <c r="G157" s="9">
+        <v>0</v>
+      </c>
+      <c r="H157" s="9">
+        <v>0</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M157" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N157" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" s="11">
+        <v>17</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L158" s="11">
         <v>36762</v>
       </c>
-      <c r="H158" s="11">
+      <c r="M158" s="11">
         <v>137862</v>
       </c>
-      <c r="I158" s="11">
+      <c r="N158" s="11">
         <v>215764</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" s="9">
+        <v>17</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L159" s="9">
         <v>505086</v>
       </c>
-      <c r="H159" s="9">
+      <c r="M159" s="9">
         <v>1652938</v>
       </c>
-      <c r="I159" s="9">
+      <c r="N159" s="9">
         <v>1491323</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
@@ -4072,146 +6192,251 @@
       <c r="I160" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="11">
+        <v>0</v>
+      </c>
+      <c r="K160" s="11">
+        <v>0</v>
+      </c>
+      <c r="L160" s="11">
+        <v>0</v>
+      </c>
+      <c r="M160" s="11">
+        <v>0</v>
+      </c>
+      <c r="N160" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="9">
+        <v>17</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" s="9">
         <v>6615365</v>
       </c>
-      <c r="G161" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I161" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N161" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="11">
+        <v>17</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K162" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L162" s="11">
         <v>392104</v>
       </c>
-      <c r="H162" s="11">
+      <c r="M162" s="11">
         <v>143017</v>
       </c>
-      <c r="I162" s="11">
+      <c r="N162" s="11">
         <v>3584175</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" s="9">
+        <v>17</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L163" s="9">
         <v>109461</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>574469</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>1070483</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" s="11">
-        <v>0</v>
-      </c>
-      <c r="H164" s="11">
-        <v>0</v>
-      </c>
-      <c r="I164" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L164" s="11">
+        <v>0</v>
+      </c>
+      <c r="M164" s="11">
+        <v>0</v>
+      </c>
+      <c r="N164" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" s="9">
+        <v>17</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L165" s="9">
         <v>673137</v>
       </c>
-      <c r="H165" s="9">
+      <c r="M165" s="9">
         <v>1904689</v>
       </c>
-      <c r="I165" s="9">
+      <c r="N165" s="9">
         <v>1357937</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15">
+        <v>1524241</v>
+      </c>
+      <c r="F166" s="15">
+        <v>1250112</v>
+      </c>
+      <c r="G166" s="15">
+        <v>1153143</v>
+      </c>
+      <c r="H166" s="15">
+        <v>1317146</v>
+      </c>
+      <c r="I166" s="15">
+        <v>1236209</v>
+      </c>
+      <c r="J166" s="15">
         <v>2759566</v>
       </c>
-      <c r="F166" s="15">
+      <c r="K166" s="15">
         <v>1302444</v>
       </c>
-      <c r="G166" s="15">
+      <c r="L166" s="15">
         <v>1716550</v>
       </c>
-      <c r="H166" s="15">
+      <c r="M166" s="15">
         <v>2168626</v>
       </c>
-      <c r="I166" s="15">
+      <c r="N166" s="15">
         <v>3038826</v>
       </c>
     </row>

--- a/database/industries/siman/sekhouz/product/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/product/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA267490-EDAC-48CC-8412-AD18C66B8146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -67,9 +66,6 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
-    <t>کلینکر</t>
-  </si>
-  <si>
     <t>تن</t>
   </si>
   <si>
@@ -88,28 +84,16 @@
     <t>سایر / تخفیفات</t>
   </si>
   <si>
-    <t>سیمان وکلینکر</t>
-  </si>
-  <si>
     <t>سیمان2فله</t>
   </si>
   <si>
     <t>سیمان 5فله</t>
   </si>
   <si>
-    <t>کلینکر2</t>
-  </si>
-  <si>
-    <t>کلینکر5</t>
-  </si>
-  <si>
     <t>جمع</t>
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>کلینکر صادراتی</t>
   </si>
   <si>
     <t>سیمان صادراتی</t>
@@ -130,22 +114,10 @@
     <t>سیمان 5پاکتی -صادراتی</t>
   </si>
   <si>
-    <t>کلینکر2-صادراتی</t>
-  </si>
-  <si>
-    <t>کلینکرتیپ 5</t>
-  </si>
-  <si>
     <t>سیمان تیپ 5-فله</t>
   </si>
   <si>
     <t>سیمان 1پاکتی -صادراتی</t>
-  </si>
-  <si>
-    <t>کلینکر5-صادراتی</t>
-  </si>
-  <si>
-    <t>کلینکر تیپ 2</t>
   </si>
   <si>
     <t>سیمان 1فله -صادراتی</t>
@@ -161,12 +133,6 @@
   </si>
   <si>
     <t>سیمان تیپ 1-فله</t>
-  </si>
-  <si>
-    <t>کلینکر 1-صادراتی</t>
-  </si>
-  <si>
-    <t>کلینکر داخلی</t>
   </si>
   <si>
     <t>سیمان 2پاکتی -صادراتی</t>
@@ -195,11 +161,35 @@
   <si>
     <t>سود ناخالص</t>
   </si>
+  <si>
+    <t>سیمان وسیمان</t>
+  </si>
+  <si>
+    <t>سیمان2</t>
+  </si>
+  <si>
+    <t>سیمان5</t>
+  </si>
+  <si>
+    <t>سیمان2-صادراتی</t>
+  </si>
+  <si>
+    <t>سیمانتیپ 5</t>
+  </si>
+  <si>
+    <t>سیمان5-صادراتی</t>
+  </si>
+  <si>
+    <t>سیمان تیپ 2</t>
+  </si>
+  <si>
+    <t>سیمان 1-صادراتی</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,10 +638,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -825,23 +817,23 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9">
         <v>1103724</v>
@@ -864,10 +856,10 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
@@ -903,32 +895,32 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -942,32 +934,32 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -981,21 +973,21 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -1018,71 +1010,71 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="11">
         <v>0</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -1096,32 +1088,32 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" s="11">
         <v>0</v>
@@ -1135,32 +1127,32 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -1174,32 +1166,32 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="11">
         <v>0</v>
@@ -1213,7 +1205,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1295,7 +1287,7 @@
     </row>
     <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1347,10 +1339,10 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
@@ -1372,7 +1364,7 @@
         <v>243874</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="9">
         <v>0</v>
@@ -1386,10 +1378,10 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
@@ -1411,7 +1403,7 @@
         <v>554437</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" s="11">
         <v>0</v>
@@ -1425,85 +1417,85 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1520,130 +1512,130 @@
         <v>0</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L33" s="11">
         <v>13509</v>
@@ -1657,71 +1649,71 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35" s="11">
         <v>158935</v>
@@ -1735,475 +1727,475 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2226,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L48" s="9">
         <v>0</v>
@@ -2240,227 +2232,227 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K53" s="11">
         <v>2440578</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L54" s="9">
         <v>201275</v>
@@ -2474,32 +2466,32 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L55" s="11">
         <v>54355</v>
@@ -2513,32 +2505,32 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L56" s="9">
         <v>0</v>
@@ -2552,32 +2544,32 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L57" s="11">
         <v>149626</v>
@@ -2591,7 +2583,7 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -2673,7 +2665,7 @@
     </row>
     <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2725,10 +2717,10 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
@@ -2750,7 +2742,7 @@
         <v>1600575</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L64" s="9">
         <v>0</v>
@@ -2764,10 +2756,10 @@
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
@@ -2789,7 +2781,7 @@
         <v>2930487</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L65" s="11">
         <v>0</v>
@@ -2803,88 +2795,88 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
@@ -2900,130 +2892,130 @@
         <v>0</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L71" s="11">
         <v>79095</v>
@@ -3037,71 +3029,71 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L73" s="11">
         <v>1019242</v>
@@ -3115,478 +3107,478 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
@@ -3608,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L86" s="9">
         <v>0</v>
@@ -3622,227 +3614,227 @@
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K91" s="11">
         <v>12824117</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L92" s="9">
         <v>1127444</v>
@@ -3856,32 +3848,32 @@
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L93" s="11">
         <v>311562</v>
@@ -3895,32 +3887,32 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L94" s="9">
         <v>0</v>
@@ -3934,32 +3926,32 @@
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L95" s="11">
         <v>1007310</v>
@@ -3973,7 +3965,7 @@
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -4055,7 +4047,7 @@
     </row>
     <row r="100" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -4107,10 +4099,10 @@
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
@@ -4135,21 +4127,21 @@
         <v>5922224</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
@@ -4174,238 +4166,238 @@
         <v>4788896</v>
       </c>
       <c r="L103" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L105" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M105" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N105" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N108" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J109" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K109" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L109" s="11">
         <v>5854986</v>
@@ -4419,71 +4411,71 @@
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J111" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K111" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L111" s="11">
         <v>6412949</v>
@@ -4497,695 +4489,695 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J113" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K113" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L113" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N113" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L115" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N115" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L117" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N117" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L119" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M119" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N119" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K121" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L121" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M121" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N121" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K123" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L123" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M123" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N123" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J125" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K125" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L125" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M125" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N125" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K127" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L127" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M127" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N127" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K128" s="9">
         <v>5254541</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N128" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K129" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L129" s="11">
         <v>5601510</v>
@@ -5199,32 +5191,32 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L130" s="9">
         <v>5731984</v>
@@ -5238,71 +5230,71 @@
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L132" s="9">
         <v>6732186</v>
@@ -5361,7 +5353,7 @@
     </row>
     <row r="136" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -5413,10 +5405,10 @@
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9">
@@ -5452,10 +5444,10 @@
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
@@ -5491,10 +5483,10 @@
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9">
@@ -5510,52 +5502,52 @@
         <v>0</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L140" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J141" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K141" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L141" s="11">
         <v>-42333</v>
@@ -5569,32 +5561,32 @@
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L142" s="9">
         <v>-514156</v>
@@ -5608,10 +5600,10 @@
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11">
@@ -5647,71 +5639,71 @@
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K144" s="9">
         <v>-6208752</v>
       </c>
       <c r="L144" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N144" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J145" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K145" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L145" s="11">
         <v>-735340</v>
@@ -5725,32 +5717,32 @@
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L146" s="9">
         <v>-202101</v>
@@ -5764,32 +5756,32 @@
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K147" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L147" s="11">
         <v>0</v>
@@ -5803,32 +5795,32 @@
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L148" s="9">
         <v>-334173</v>
@@ -5842,7 +5834,7 @@
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
@@ -5924,7 +5916,7 @@
     </row>
     <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -5976,10 +5968,10 @@
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
@@ -6015,10 +6007,10 @@
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
@@ -6054,10 +6046,10 @@
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
@@ -6073,52 +6065,52 @@
         <v>0</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L157" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M157" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N157" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K158" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L158" s="11">
         <v>36762</v>
@@ -6132,32 +6124,32 @@
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L159" s="9">
         <v>505086</v>
@@ -6171,10 +6163,10 @@
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
@@ -6210,71 +6202,71 @@
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K161" s="9">
         <v>6615365</v>
       </c>
       <c r="L161" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M161" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N161" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J162" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K162" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L162" s="11">
         <v>392104</v>
@@ -6288,32 +6280,32 @@
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L163" s="9">
         <v>109461</v>
@@ -6327,32 +6319,32 @@
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J164" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K164" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L164" s="11">
         <v>0</v>
@@ -6366,32 +6358,32 @@
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L165" s="9">
         <v>673137</v>
@@ -6405,7 +6397,7 @@
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>

--- a/database/industries/siman/sekhouz/product/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB70D386-61C4-4FF2-A34B-A1ED62B78571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -66,6 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>کلینکر</t>
+  </si>
+  <si>
     <t>تن</t>
   </si>
   <si>
@@ -84,16 +88,28 @@
     <t>سایر / تخفیفات</t>
   </si>
   <si>
+    <t>سیمان وکلینکر</t>
+  </si>
+  <si>
     <t>سیمان2فله</t>
   </si>
   <si>
     <t>سیمان 5فله</t>
   </si>
   <si>
+    <t>کلینکر2</t>
+  </si>
+  <si>
+    <t>کلینکر5</t>
+  </si>
+  <si>
     <t>جمع</t>
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>کلینکر صادراتی</t>
   </si>
   <si>
     <t>سیمان صادراتی</t>
@@ -114,10 +130,22 @@
     <t>سیمان 5پاکتی -صادراتی</t>
   </si>
   <si>
+    <t>کلینکر2-صادراتی</t>
+  </si>
+  <si>
+    <t>کلینکرتیپ 5</t>
+  </si>
+  <si>
     <t>سیمان تیپ 5-فله</t>
   </si>
   <si>
     <t>سیمان 1پاکتی -صادراتی</t>
+  </si>
+  <si>
+    <t>کلینکر5-صادراتی</t>
+  </si>
+  <si>
+    <t>کلینکر تیپ 2</t>
   </si>
   <si>
     <t>سیمان 1فله -صادراتی</t>
@@ -133,6 +161,12 @@
   </si>
   <si>
     <t>سیمان تیپ 1-فله</t>
+  </si>
+  <si>
+    <t>کلینکر 1-صادراتی</t>
+  </si>
+  <si>
+    <t>کلینکر داخلی</t>
   </si>
   <si>
     <t>سیمان 2پاکتی -صادراتی</t>
@@ -161,35 +195,11 @@
   <si>
     <t>سود ناخالص</t>
   </si>
-  <si>
-    <t>سیمان وسیمان</t>
-  </si>
-  <si>
-    <t>سیمان2</t>
-  </si>
-  <si>
-    <t>سیمان5</t>
-  </si>
-  <si>
-    <t>سیمان2-صادراتی</t>
-  </si>
-  <si>
-    <t>سیمانتیپ 5</t>
-  </si>
-  <si>
-    <t>سیمان5-صادراتی</t>
-  </si>
-  <si>
-    <t>سیمان تیپ 2</t>
-  </si>
-  <si>
-    <t>سیمان 1-صادراتی</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,19 +648,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -665,7 +673,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,7 +690,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -699,7 +707,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -714,7 +722,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -731,7 +739,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -748,7 +756,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -763,7 +771,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -800,7 +808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -815,151 +823,151 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1103724</v>
+      </c>
+      <c r="I10" s="9">
+        <v>667836</v>
+      </c>
+      <c r="J10" s="9">
+        <v>557910</v>
+      </c>
+      <c r="K10" s="9">
+        <v>590890</v>
+      </c>
+      <c r="L10" s="9">
+        <v>573733</v>
+      </c>
+      <c r="M10" s="9">
+        <v>658126</v>
+      </c>
+      <c r="N10" s="9">
+        <v>618450</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1103724</v>
-      </c>
-      <c r="J10" s="9">
-        <v>667836</v>
-      </c>
-      <c r="K10" s="9">
-        <v>557910</v>
-      </c>
-      <c r="L10" s="9">
-        <v>590890</v>
-      </c>
-      <c r="M10" s="9">
-        <v>573733</v>
-      </c>
-      <c r="N10" s="9">
-        <v>658126</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>441378</v>
+        <v>464557</v>
       </c>
       <c r="F11" s="11">
-        <v>464557</v>
+        <v>479019</v>
       </c>
       <c r="G11" s="11">
-        <v>479019</v>
+        <v>362123</v>
       </c>
       <c r="H11" s="11">
-        <v>362123</v>
+        <v>402716</v>
       </c>
       <c r="I11" s="11">
-        <v>402716</v>
+        <v>533301</v>
       </c>
       <c r="J11" s="11">
-        <v>533301</v>
+        <v>445740</v>
       </c>
       <c r="K11" s="11">
-        <v>445740</v>
+        <v>437490</v>
       </c>
       <c r="L11" s="11">
-        <v>437490</v>
+        <v>390921</v>
       </c>
       <c r="M11" s="11">
-        <v>390921</v>
+        <v>564767</v>
       </c>
       <c r="N11" s="11">
-        <v>564767</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>607453</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -971,227 +979,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
       </c>
       <c r="L19" s="11">
         <v>0</v>
@@ -1203,44 +1211,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>441378</v>
+        <v>464557</v>
       </c>
       <c r="F20" s="13">
-        <v>464557</v>
+        <v>479019</v>
       </c>
       <c r="G20" s="13">
-        <v>479019</v>
+        <v>362123</v>
       </c>
       <c r="H20" s="13">
-        <v>362123</v>
+        <v>1506440</v>
       </c>
       <c r="I20" s="13">
-        <v>1506440</v>
+        <v>1201137</v>
       </c>
       <c r="J20" s="13">
-        <v>1201137</v>
+        <v>1003650</v>
       </c>
       <c r="K20" s="13">
-        <v>1003650</v>
+        <v>1028380</v>
       </c>
       <c r="L20" s="13">
-        <v>1028380</v>
+        <v>964654</v>
       </c>
       <c r="M20" s="13">
-        <v>964654</v>
+        <v>1222893</v>
       </c>
       <c r="N20" s="13">
-        <v>1222893</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1225903</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1255,7 +1263,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1270,7 +1278,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1285,9 +1293,9 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1322,7 +1330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1337,165 +1345,165 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>245298</v>
+        <v>168161</v>
       </c>
       <c r="F26" s="9">
-        <v>168161</v>
+        <v>192449</v>
       </c>
       <c r="G26" s="9">
-        <v>192449</v>
+        <v>211992</v>
       </c>
       <c r="H26" s="9">
-        <v>211992</v>
+        <v>84441</v>
       </c>
       <c r="I26" s="9">
-        <v>84441</v>
-      </c>
-      <c r="J26" s="9">
         <v>243874</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="J26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>462510</v>
+        <v>456291</v>
       </c>
       <c r="F27" s="11">
-        <v>456291</v>
+        <v>473401</v>
       </c>
       <c r="G27" s="11">
-        <v>473401</v>
+        <v>369107</v>
       </c>
       <c r="H27" s="11">
-        <v>369107</v>
+        <v>377514</v>
       </c>
       <c r="I27" s="11">
-        <v>377514</v>
-      </c>
-      <c r="J27" s="11">
         <v>554437</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="J27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1508,694 +1516,694 @@
       <c r="G30" s="9">
         <v>0</v>
       </c>
-      <c r="H30" s="9">
-        <v>0</v>
+      <c r="H30" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="11">
+        <v>13509</v>
+      </c>
+      <c r="L33" s="11">
+        <v>13876</v>
+      </c>
+      <c r="M33" s="11">
+        <v>33096</v>
+      </c>
+      <c r="N33" s="11">
+        <v>24307</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="11">
-        <v>13509</v>
-      </c>
-      <c r="M33" s="11">
-        <v>13876</v>
-      </c>
-      <c r="N33" s="11">
-        <v>33096</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="11">
+        <v>158935</v>
+      </c>
+      <c r="L35" s="11">
+        <v>159449</v>
+      </c>
+      <c r="M35" s="11">
+        <v>200868</v>
+      </c>
+      <c r="N35" s="11">
+        <v>188595</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="11">
-        <v>158935</v>
-      </c>
-      <c r="M35" s="11">
-        <v>159449</v>
-      </c>
-      <c r="N35" s="11">
-        <v>200868</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2214,411 +2222,411 @@
       <c r="I48" s="9">
         <v>0</v>
       </c>
-      <c r="J48" s="9">
-        <v>0</v>
-      </c>
-      <c r="K48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9">
-        <v>0</v>
-      </c>
-      <c r="N48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N49" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="11">
+        <v>2440578</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" s="11">
-        <v>2440578</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N53" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="9">
+        <v>201275</v>
+      </c>
+      <c r="L54" s="9">
+        <v>143080</v>
+      </c>
+      <c r="M54" s="9">
+        <v>233086</v>
+      </c>
+      <c r="N54" s="9">
+        <v>297240</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="9">
-        <v>201275</v>
-      </c>
-      <c r="M54" s="9">
-        <v>143080</v>
-      </c>
-      <c r="N54" s="9">
-        <v>233086</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="11">
+        <v>54355</v>
+      </c>
+      <c r="L55" s="11">
+        <v>54487</v>
+      </c>
+      <c r="M55" s="11">
+        <v>127471</v>
+      </c>
+      <c r="N55" s="11">
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L55" s="11">
-        <v>54355</v>
-      </c>
-      <c r="M55" s="11">
-        <v>54487</v>
-      </c>
-      <c r="N55" s="11">
-        <v>127471</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56" s="9">
-        <v>0</v>
-      </c>
-      <c r="M56" s="9">
-        <v>0</v>
-      </c>
-      <c r="N56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K57" s="11">
+        <v>149626</v>
       </c>
       <c r="L57" s="11">
-        <v>149626</v>
+        <v>183063</v>
       </c>
       <c r="M57" s="11">
-        <v>183063</v>
+        <v>150887</v>
       </c>
       <c r="N57" s="11">
-        <v>150887</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69680</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>707808</v>
+        <v>624452</v>
       </c>
       <c r="F58" s="13">
-        <v>624452</v>
+        <v>665850</v>
       </c>
       <c r="G58" s="13">
-        <v>665850</v>
+        <v>581099</v>
       </c>
       <c r="H58" s="13">
-        <v>581099</v>
+        <v>461955</v>
       </c>
       <c r="I58" s="13">
-        <v>461955</v>
+        <v>798311</v>
       </c>
       <c r="J58" s="13">
-        <v>798311</v>
+        <v>2440578</v>
       </c>
       <c r="K58" s="13">
-        <v>2440578</v>
+        <v>577700</v>
       </c>
       <c r="L58" s="13">
-        <v>577700</v>
+        <v>553955</v>
       </c>
       <c r="M58" s="13">
-        <v>553955</v>
+        <v>745408</v>
       </c>
       <c r="N58" s="13">
-        <v>745408</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>681105</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2633,7 +2641,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2648,7 +2656,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2663,9 +2671,9 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2700,7 +2708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2715,34 +2723,34 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>881840</v>
+        <v>709780</v>
       </c>
       <c r="F64" s="9">
-        <v>709780</v>
+        <v>850481</v>
       </c>
       <c r="G64" s="9">
-        <v>850481</v>
+        <v>1035582</v>
       </c>
       <c r="H64" s="9">
-        <v>1035582</v>
+        <v>563662</v>
       </c>
       <c r="I64" s="9">
-        <v>563662</v>
-      </c>
-      <c r="J64" s="9">
         <v>1600575</v>
       </c>
-      <c r="K64" s="9" t="s">
-        <v>16</v>
+      <c r="J64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="9">
+        <v>0</v>
       </c>
       <c r="L64" s="9">
         <v>0</v>
@@ -2754,34 +2762,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>1586756</v>
+        <v>1444150</v>
       </c>
       <c r="F65" s="11">
-        <v>1444150</v>
+        <v>1591437</v>
       </c>
       <c r="G65" s="11">
-        <v>1591437</v>
+        <v>1346237</v>
       </c>
       <c r="H65" s="11">
-        <v>1346237</v>
+        <v>1953907</v>
       </c>
       <c r="I65" s="11">
-        <v>1953907</v>
-      </c>
-      <c r="J65" s="11">
         <v>2930487</v>
       </c>
-      <c r="K65" s="11" t="s">
-        <v>16</v>
+      <c r="J65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0</v>
       </c>
       <c r="L65" s="11">
         <v>0</v>
@@ -2793,90 +2801,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
@@ -2888,697 +2896,697 @@
       <c r="G68" s="9">
         <v>0</v>
       </c>
-      <c r="H68" s="9">
-        <v>0</v>
+      <c r="H68" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K71" s="11">
+        <v>79095</v>
       </c>
       <c r="L71" s="11">
-        <v>79095</v>
+        <v>95529</v>
       </c>
       <c r="M71" s="11">
-        <v>95529</v>
+        <v>215764</v>
       </c>
       <c r="N71" s="11">
-        <v>215764</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>156143</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K73" s="11">
+        <v>1019242</v>
       </c>
       <c r="L73" s="11">
-        <v>1019242</v>
+        <v>1138782</v>
       </c>
       <c r="M73" s="11">
-        <v>1138782</v>
+        <v>1491323</v>
       </c>
       <c r="N73" s="11">
-        <v>1491323</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1460455</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
@@ -3596,11 +3604,11 @@
       <c r="I86" s="9">
         <v>0</v>
       </c>
-      <c r="J86" s="9">
-        <v>0</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>16</v>
+      <c r="J86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="9">
+        <v>0</v>
       </c>
       <c r="L86" s="9">
         <v>0</v>
@@ -3612,307 +3620,307 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N90" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="11">
+        <v>17</v>
+      </c>
+      <c r="J91" s="11">
         <v>12824117</v>
       </c>
+      <c r="K91" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L91" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N91" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K92" s="9">
+        <v>1127444</v>
       </c>
       <c r="L92" s="9">
-        <v>1127444</v>
+        <v>1062275</v>
       </c>
       <c r="M92" s="9">
-        <v>1062275</v>
+        <v>1929577</v>
       </c>
       <c r="N92" s="9">
-        <v>1929577</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2800490</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K93" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K93" s="11">
+        <v>311562</v>
       </c>
       <c r="L93" s="11">
-        <v>311562</v>
+        <v>372368</v>
       </c>
       <c r="M93" s="11">
-        <v>372368</v>
+        <v>1070483</v>
       </c>
       <c r="N93" s="11">
-        <v>1070483</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1048416</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K94" s="9">
+        <v>0</v>
       </c>
       <c r="L94" s="9">
         <v>0</v>
@@ -3924,83 +3932,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K95" s="11">
+        <v>1007310</v>
       </c>
       <c r="L95" s="11">
-        <v>1007310</v>
+        <v>1570516</v>
       </c>
       <c r="M95" s="11">
-        <v>1570516</v>
+        <v>1357937</v>
       </c>
       <c r="N95" s="11">
-        <v>1357937</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>663048</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
-        <v>2468596</v>
+        <v>2153930</v>
       </c>
       <c r="F96" s="13">
-        <v>2153930</v>
+        <v>2441918</v>
       </c>
       <c r="G96" s="13">
-        <v>2441918</v>
+        <v>2381819</v>
       </c>
       <c r="H96" s="13">
-        <v>2381819</v>
+        <v>2517569</v>
       </c>
       <c r="I96" s="13">
-        <v>2517569</v>
+        <v>4531062</v>
       </c>
       <c r="J96" s="13">
-        <v>4531062</v>
+        <v>12824117</v>
       </c>
       <c r="K96" s="13">
-        <v>12824117</v>
+        <v>3544653</v>
       </c>
       <c r="L96" s="13">
-        <v>3544653</v>
+        <v>4239470</v>
       </c>
       <c r="M96" s="13">
-        <v>4239470</v>
+        <v>6065084</v>
       </c>
       <c r="N96" s="13">
-        <v>6065084</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6128552</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4015,7 +4023,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4030,7 +4038,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4045,9 +4053,9 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -4082,7 +4090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4097,1216 +4105,1216 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
-        <v>3073074</v>
+        <v>3403646</v>
       </c>
       <c r="F102" s="9">
-        <v>3403646</v>
+        <v>3655417</v>
       </c>
       <c r="G102" s="9">
-        <v>3655417</v>
+        <v>4885005</v>
       </c>
       <c r="H102" s="9">
-        <v>4885005</v>
+        <v>6675217</v>
       </c>
       <c r="I102" s="9">
-        <v>6675217</v>
+        <v>5922224</v>
       </c>
       <c r="J102" s="9">
         <v>5922224</v>
       </c>
-      <c r="K102" s="9">
-        <v>5922224</v>
+      <c r="K102" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>2885636</v>
+        <v>2989915</v>
       </c>
       <c r="F103" s="11">
-        <v>2989915</v>
+        <v>3093712</v>
       </c>
       <c r="G103" s="11">
-        <v>3093712</v>
+        <v>3647281</v>
       </c>
       <c r="H103" s="11">
-        <v>3647281</v>
+        <v>5175721</v>
       </c>
       <c r="I103" s="11">
-        <v>5175721</v>
+        <v>4788896</v>
       </c>
       <c r="J103" s="11">
         <v>4788896</v>
       </c>
-      <c r="K103" s="11">
-        <v>4788896</v>
+      <c r="K103" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L103" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N105" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N106" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N108" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J109" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K109" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K109" s="11">
+        <v>5854986</v>
       </c>
       <c r="L109" s="11">
-        <v>5854986</v>
+        <v>6884477</v>
       </c>
       <c r="M109" s="11">
-        <v>6884477</v>
+        <v>6519338</v>
       </c>
       <c r="N109" s="11">
-        <v>6519338</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6423787</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J111" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K111" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K111" s="11">
+        <v>6412949</v>
       </c>
       <c r="L111" s="11">
-        <v>6412949</v>
+        <v>7141983</v>
       </c>
       <c r="M111" s="11">
-        <v>7141983</v>
+        <v>7424393</v>
       </c>
       <c r="N111" s="11">
-        <v>7424393</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7743869</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N112" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N113" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L115" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N115" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N116" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L117" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N117" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N119" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N121" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L122" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N122" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N123" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L124" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J125" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K125" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L125" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M125" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N125" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N127" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J128" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K128" s="9">
+        <v>17</v>
+      </c>
+      <c r="J128" s="9">
         <v>5254541</v>
       </c>
+      <c r="K128" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L128" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N128" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K129" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K129" s="11">
+        <v>5601510</v>
       </c>
       <c r="L129" s="11">
-        <v>5601510</v>
+        <v>7424343</v>
       </c>
       <c r="M129" s="11">
-        <v>7424343</v>
+        <v>8278391</v>
       </c>
       <c r="N129" s="11">
-        <v>8278391</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9421646</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K130" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K130" s="9">
+        <v>5731984</v>
       </c>
       <c r="L130" s="9">
-        <v>5731984</v>
+        <v>6834071</v>
       </c>
       <c r="M130" s="9">
-        <v>6834071</v>
+        <v>8397855</v>
       </c>
       <c r="N130" s="9">
-        <v>8397855</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10351352</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L131" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M131" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K132" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K132" s="9">
+        <v>6732186</v>
       </c>
       <c r="L132" s="9">
-        <v>6732186</v>
+        <v>8579101</v>
       </c>
       <c r="M132" s="9">
-        <v>8579101</v>
+        <v>8999695</v>
       </c>
       <c r="N132" s="9">
-        <v>8999695</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9515614</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5321,7 +5329,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -5336,7 +5344,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -5351,9 +5359,9 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -5388,7 +5396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5403,34 +5411,34 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9">
-        <v>-347437</v>
+        <v>-273638</v>
       </c>
       <c r="F138" s="9">
-        <v>-273638</v>
+        <v>-155539</v>
       </c>
       <c r="G138" s="9">
-        <v>-155539</v>
+        <v>-462906</v>
       </c>
       <c r="H138" s="9">
-        <v>-462906</v>
+        <v>-242923</v>
       </c>
       <c r="I138" s="9">
-        <v>-242923</v>
+        <v>-691278</v>
       </c>
       <c r="J138" s="9">
-        <v>-691278</v>
+        <v>1397107</v>
       </c>
       <c r="K138" s="9">
-        <v>1397107</v>
+        <v>0</v>
       </c>
       <c r="L138" s="9">
         <v>0</v>
@@ -5442,51 +5450,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
-        <v>-596918</v>
+        <v>-630180</v>
       </c>
       <c r="F139" s="11">
-        <v>-630180</v>
+        <v>-1133236</v>
       </c>
       <c r="G139" s="11">
-        <v>-1133236</v>
+        <v>-601767</v>
       </c>
       <c r="H139" s="11">
-        <v>-601767</v>
+        <v>-1038437</v>
       </c>
       <c r="I139" s="11">
-        <v>-1038437</v>
+        <v>-1080218</v>
       </c>
       <c r="J139" s="11">
-        <v>-1080218</v>
+        <v>2720422</v>
       </c>
       <c r="K139" s="11">
-        <v>2720422</v>
+        <v>0</v>
       </c>
       <c r="L139" s="11">
-        <v>0</v>
+        <v>-2244349</v>
       </c>
       <c r="M139" s="11">
-        <v>-2244349</v>
+        <v>-4680856</v>
       </c>
       <c r="N139" s="11">
-        <v>-4680856</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6925205</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9">
@@ -5498,112 +5506,112 @@
       <c r="G140" s="9">
         <v>0</v>
       </c>
-      <c r="H140" s="9">
-        <v>0</v>
+      <c r="H140" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L140" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J141" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K141" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K141" s="11">
+        <v>-42333</v>
       </c>
       <c r="L141" s="11">
-        <v>-42333</v>
+        <v>42333</v>
       </c>
       <c r="M141" s="11">
-        <v>42333</v>
+        <v>0</v>
       </c>
       <c r="N141" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-316004</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K142" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K142" s="9">
+        <v>-514156</v>
       </c>
       <c r="L142" s="9">
-        <v>-514156</v>
+        <v>514156</v>
       </c>
       <c r="M142" s="9">
-        <v>514156</v>
+        <v>0</v>
       </c>
       <c r="N142" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2691562</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11">
@@ -5637,151 +5645,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K144" s="9">
+        <v>17</v>
+      </c>
+      <c r="J144" s="9">
         <v>-6208752</v>
       </c>
+      <c r="K144" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L144" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N144" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J145" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K145" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K145" s="11">
+        <v>-735340</v>
       </c>
       <c r="L145" s="11">
-        <v>-735340</v>
+        <v>-919258</v>
       </c>
       <c r="M145" s="11">
-        <v>-919258</v>
+        <v>1654598</v>
       </c>
       <c r="N145" s="11">
-        <v>1654598</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3349965</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K146" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K146" s="9">
+        <v>-202101</v>
       </c>
       <c r="L146" s="9">
-        <v>-202101</v>
+        <v>202101</v>
       </c>
       <c r="M146" s="9">
-        <v>202101</v>
+        <v>0</v>
       </c>
       <c r="N146" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1348485</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K147" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K147" s="11">
+        <v>0</v>
       </c>
       <c r="L147" s="11">
         <v>0</v>
@@ -5793,83 +5801,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K148" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K148" s="9">
+        <v>-334173</v>
       </c>
       <c r="L148" s="9">
-        <v>-334173</v>
+        <v>334173</v>
       </c>
       <c r="M148" s="9">
-        <v>334173</v>
+        <v>0</v>
       </c>
       <c r="N148" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1737370</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
-        <v>-944355</v>
+        <v>-903818</v>
       </c>
       <c r="F149" s="15">
-        <v>-903818</v>
+        <v>-1288775</v>
       </c>
       <c r="G149" s="15">
-        <v>-1288775</v>
+        <v>-1064673</v>
       </c>
       <c r="H149" s="15">
-        <v>-1064673</v>
+        <v>-1281360</v>
       </c>
       <c r="I149" s="15">
-        <v>-1281360</v>
+        <v>-1771496</v>
       </c>
       <c r="J149" s="15">
-        <v>-1771496</v>
+        <v>-2091223</v>
       </c>
       <c r="K149" s="15">
-        <v>-2091223</v>
+        <v>-1828103</v>
       </c>
       <c r="L149" s="15">
-        <v>-1828103</v>
+        <v>-2070844</v>
       </c>
       <c r="M149" s="15">
-        <v>-2070844</v>
+        <v>-3026258</v>
       </c>
       <c r="N149" s="15">
-        <v>-3026258</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2518181</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5884,7 +5892,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5899,7 +5907,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5914,9 +5922,9 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -5951,7 +5959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5966,34 +5974,34 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
-        <v>534403</v>
+        <v>436142</v>
       </c>
       <c r="F155" s="9">
-        <v>436142</v>
+        <v>694942</v>
       </c>
       <c r="G155" s="9">
-        <v>694942</v>
+        <v>572676</v>
       </c>
       <c r="H155" s="9">
-        <v>572676</v>
+        <v>320739</v>
       </c>
       <c r="I155" s="9">
-        <v>320739</v>
+        <v>909297</v>
       </c>
       <c r="J155" s="9">
-        <v>909297</v>
+        <v>-1802712</v>
       </c>
       <c r="K155" s="9">
-        <v>-1802712</v>
+        <v>0</v>
       </c>
       <c r="L155" s="9">
         <v>0</v>
@@ -6005,51 +6013,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
-        <v>989838</v>
+        <v>813970</v>
       </c>
       <c r="F156" s="11">
-        <v>813970</v>
+        <v>458201</v>
       </c>
       <c r="G156" s="11">
-        <v>458201</v>
+        <v>744470</v>
       </c>
       <c r="H156" s="11">
-        <v>744470</v>
+        <v>915470</v>
       </c>
       <c r="I156" s="11">
-        <v>915470</v>
+        <v>1850269</v>
       </c>
       <c r="J156" s="11">
-        <v>1850269</v>
+        <v>-3510209</v>
       </c>
       <c r="K156" s="11">
-        <v>-3510209</v>
+        <v>0</v>
       </c>
       <c r="L156" s="11">
-        <v>0</v>
+        <v>-2244349</v>
       </c>
       <c r="M156" s="11">
-        <v>-2244349</v>
+        <v>-4680856</v>
       </c>
       <c r="N156" s="11">
-        <v>-4680856</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6925205</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
@@ -6061,112 +6069,112 @@
       <c r="G157" s="9">
         <v>0</v>
       </c>
-      <c r="H157" s="9">
-        <v>0</v>
+      <c r="H157" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L157" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M157" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N157" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K158" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K158" s="11">
+        <v>36762</v>
       </c>
       <c r="L158" s="11">
-        <v>36762</v>
+        <v>137862</v>
       </c>
       <c r="M158" s="11">
-        <v>137862</v>
+        <v>215764</v>
       </c>
       <c r="N158" s="11">
-        <v>215764</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-159861</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K159" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K159" s="9">
+        <v>505086</v>
       </c>
       <c r="L159" s="9">
-        <v>505086</v>
+        <v>1652938</v>
       </c>
       <c r="M159" s="9">
-        <v>1652938</v>
+        <v>1491323</v>
       </c>
       <c r="N159" s="9">
-        <v>1491323</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1231107</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
@@ -6200,151 +6208,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J161" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K161" s="9">
+        <v>17</v>
+      </c>
+      <c r="J161" s="9">
         <v>6615365</v>
       </c>
+      <c r="K161" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L161" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M161" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N161" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J162" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K162" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K162" s="11">
+        <v>392104</v>
       </c>
       <c r="L162" s="11">
-        <v>392104</v>
+        <v>143017</v>
       </c>
       <c r="M162" s="11">
-        <v>143017</v>
+        <v>3584175</v>
       </c>
       <c r="N162" s="11">
-        <v>3584175</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-549475</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K163" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K163" s="9">
+        <v>109461</v>
       </c>
       <c r="L163" s="9">
-        <v>109461</v>
+        <v>574469</v>
       </c>
       <c r="M163" s="9">
-        <v>574469</v>
+        <v>1070483</v>
       </c>
       <c r="N163" s="9">
-        <v>1070483</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-300069</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J164" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K164" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K164" s="11">
+        <v>0</v>
       </c>
       <c r="L164" s="11">
         <v>0</v>
@@ -6356,80 +6364,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K165" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K165" s="9">
+        <v>673137</v>
       </c>
       <c r="L165" s="9">
-        <v>673137</v>
+        <v>1904689</v>
       </c>
       <c r="M165" s="9">
-        <v>1904689</v>
+        <v>1357937</v>
       </c>
       <c r="N165" s="9">
-        <v>1357937</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1074322</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15">
-        <v>1524241</v>
+        <v>1250112</v>
       </c>
       <c r="F166" s="15">
-        <v>1250112</v>
+        <v>1153143</v>
       </c>
       <c r="G166" s="15">
-        <v>1153143</v>
+        <v>1317146</v>
       </c>
       <c r="H166" s="15">
-        <v>1317146</v>
+        <v>1236209</v>
       </c>
       <c r="I166" s="15">
-        <v>1236209</v>
+        <v>2759566</v>
       </c>
       <c r="J166" s="15">
-        <v>2759566</v>
+        <v>1302444</v>
       </c>
       <c r="K166" s="15">
-        <v>1302444</v>
+        <v>1716550</v>
       </c>
       <c r="L166" s="15">
-        <v>1716550</v>
+        <v>2168626</v>
       </c>
       <c r="M166" s="15">
-        <v>2168626</v>
+        <v>3038826</v>
       </c>
       <c r="N166" s="15">
-        <v>3038826</v>
+        <v>3610371</v>
       </c>
     </row>
   </sheetData>
